--- a/example/rzdspec.xlsx
+++ b/example/rzdspec.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0399C67-B17C-4967-B611-2D13293CF66A}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81A1FD22-C13C-4849-B12B-650AEE7C06FF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1968" yWindow="-108" windowWidth="21180" windowHeight="13176" xr2:uid="{4796095C-ADB6-48DB-A827-09A8F5043967}"/>
+    <workbookView xWindow="4284" yWindow="1260" windowWidth="15720" windowHeight="9420" xr2:uid="{4796095C-ADB6-48DB-A827-09A8F5043967}"/>
   </bookViews>
   <sheets>
     <sheet name="_spec_" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="311" uniqueCount="71">
   <si>
     <t>источник</t>
   </si>
@@ -247,6 +247,9 @@
   </si>
   <si>
     <t>float</t>
+  </si>
+  <si>
+    <t>param2</t>
   </si>
 </sst>
 </file>
@@ -614,9 +617,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{684C2B2F-8D16-4192-B54F-DDF2B85E25CB}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -684,9 +685,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{34D1ADA7-FBF7-4CA8-9E2C-4607F23B834A}">
   <dimension ref="A1:D49"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B43" sqref="B43"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -704,7 +703,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1210,7 +1209,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
@@ -1716,7 +1715,7 @@
         <v>52</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>52</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
